--- a/ResultadoEleicoesDistritos/PORTALEGRE_FRONTEIRA.xlsx
+++ b/ResultadoEleicoesDistritos/PORTALEGRE_FRONTEIRA.xlsx
@@ -597,64 +597,64 @@
         <v>790</v>
       </c>
       <c r="H2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I2" t="n">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="J2" t="n">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="T2" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="U2" t="n">
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
